--- a/docs/Master- Interview.xlsx
+++ b/docs/Master- Interview.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/David/www/leetcode/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvas22/Desktop/David/www/development/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB2979-4DA2-084D-A4C7-0B9266C0D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E204C-5189-EA43-BF96-A847BC2993F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{392900BC-6509-0B43-901F-EAAB9318BEC5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="19840" activeTab="3" xr2:uid="{392900BC-6509-0B43-901F-EAAB9318BEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
     <sheet name="Databse" sheetId="10" r:id="rId2"/>
-    <sheet name="DynanoDB" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
-    <sheet name="System Design" sheetId="8" r:id="rId5"/>
-    <sheet name="Concepts" sheetId="9" r:id="rId6"/>
-    <sheet name="Web" sheetId="5" r:id="rId7"/>
-    <sheet name="Frameworks" sheetId="6" r:id="rId8"/>
-    <sheet name="React" sheetId="3" r:id="rId9"/>
-    <sheet name="AWS" sheetId="4" r:id="rId10"/>
-    <sheet name="JavaScript" sheetId="2" r:id="rId11"/>
-    <sheet name="Web- Full" sheetId="7" r:id="rId12"/>
+    <sheet name="SQL" sheetId="13" r:id="rId3"/>
+    <sheet name="PL SQL" sheetId="14" r:id="rId4"/>
+    <sheet name="DynanoDB" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
+    <sheet name="System Design" sheetId="8" r:id="rId7"/>
+    <sheet name="Concepts" sheetId="9" r:id="rId8"/>
+    <sheet name="Web" sheetId="5" r:id="rId9"/>
+    <sheet name="Frameworks" sheetId="6" r:id="rId10"/>
+    <sheet name="React" sheetId="3" r:id="rId11"/>
+    <sheet name="AWS" sheetId="4" r:id="rId12"/>
+    <sheet name="JavaScript" sheetId="2" r:id="rId13"/>
+    <sheet name="Web- Full" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="462">
   <si>
     <t>Java Language</t>
   </si>
@@ -1646,6 +1648,483 @@
   </si>
   <si>
     <t xml:space="preserve">Each column directly related to primary key and not other columns </t>
+  </si>
+  <si>
+    <t>Creating</t>
+  </si>
+  <si>
+    <t>A class can inherit from only one abstract class (It is a type of object)</t>
+  </si>
+  <si>
+    <t>Can implement multiple interfaces because it represents set of behaviors</t>
+  </si>
+  <si>
+    <t>Stored Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE PROCEDURE procedure_name
+AS
+sql_statement
+GO; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE PROCEDURE SelectAllCustomers
+AS
+SELECT * FROM Customers
+GO; </t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>select single value from duplicate values</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products ORDER BY Price;</t>
+  </si>
+  <si>
+    <t>Order By</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or </t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>WHERE Country = 'Spain' AND CustomerName LIKE 'G%';</t>
+  </si>
+  <si>
+    <t>Filter on multiple conditions</t>
+  </si>
+  <si>
+    <t>WHERE Country = 'Germany' OR Country = 'Spain';</t>
+  </si>
+  <si>
+    <t>WHERE NOT Country = 'Spain';</t>
+  </si>
+  <si>
+    <t>Filter remove</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>SELECT CustomerName, ContactName, Address
+FROM Customers
+WHERE Address IS NULL;</t>
+  </si>
+  <si>
+    <t>Find null values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT column_names
+FROM table_name
+WHERE column_name IS NOT NULL; </t>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>Has a value</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT MIN(Price) FROM Products; </t>
+  </si>
+  <si>
+    <t>SELECT MIN(Price) AS SmallestPrice FROM Products;</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(ProductName) FROM Products;</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>SELECT SUM(Quantity) FROM OrderDetails;</t>
+  </si>
+  <si>
+    <t>SELECT AVG(Price) FROM Products;</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Sort in ascending or descending order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM Customers WHERE city LIKE 'L_nd__'; </t>
+  </si>
+  <si>
+    <t>_ wildcard represents a single character</t>
+  </si>
+  <si>
+    <t>% wildcard represents any number of characters, even zero characters</t>
+  </si>
+  <si>
+    <t>Wildcard (_)</t>
+  </si>
+  <si>
+    <t>Wildcard (%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where it contains the letter L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT * FROM Customers WHERE city LIKE '%L%'; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Starts with L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Customers WHERE CustomerName LIKE 'La%'; </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In </t>
+  </si>
+  <si>
+    <t>SELECT * FROM Customers WHERE Country IN ('Germany', 'France', 'UK');</t>
+  </si>
+  <si>
+    <t>The IN operator is a shorthand for multiple OR conditions</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products WHERE Price BETWEEN 10 AND 20;</t>
+  </si>
+  <si>
+    <t>Selects values within a given range</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>SELECT CustomerID AS ID FROM Customers;</t>
+  </si>
+  <si>
+    <t>SQL aliases are used to give a table, or a column in a table, a temporary name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Join </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT ProductID, ProductName, CategoryName
+FROM Products
+INNER JOIN Categories ON Products.CategoryID = Categories.CategoryID; </t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE SelectAllCustomers
+AS
+SELECT * FROM Customers
+GO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Customers WHERE CustomerName LIKE 'a%'</t>
+  </si>
+  <si>
+    <t>PL/SQL is a completely portable, high-performance transaction-processing language.</t>
+  </si>
+  <si>
+    <t>PL/SQL provides a built-in, interpreted and OS independent programming environment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PL/SQL can also directly be called from the command-line </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL*Plus interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Direct call can also be made from external programming language calls to database.</t>
+  </si>
+  <si>
+    <t>PL/SQL's general syntax is based on that of ADA and Pascal programming language.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apart from Oracle, PL/SQL is available in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TimesTen in-memory database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IBM DB2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>High Level</t>
+  </si>
+  <si>
+    <t>PL/SQL is tightly integrated with SQL.</t>
+  </si>
+  <si>
+    <t>It offers extensive error checking.</t>
+  </si>
+  <si>
+    <t>It offers numerous data types.</t>
+  </si>
+  <si>
+    <t>It offers a variety of programming structures.</t>
+  </si>
+  <si>
+    <t>It supports structured programming through functions and procedures.</t>
+  </si>
+  <si>
+    <t>It supports object-oriented programming.</t>
+  </si>
+  <si>
+    <t>It supports the development of web applications and server pages.</t>
+  </si>
+  <si>
+    <t>you should have the Oracle RDBMS Server installed in your machine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declarations
+</t>
+  </si>
+  <si>
+    <t>This section starts with the keyword DECLARE. It is an optional section and defines all variables, cursors, subprograms, and other elements to be used in the program.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Executable Commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>This section is enclosed between the keywords BEGIN and END and it is a mandatory section. It consists of the executable PL/SQL statements of the program. It should have at least one executable line of code, which may be just a NULL command to indicate that nothing should be executed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception Handling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>This section starts with the keyword EXCEPTION. This optional section contains exception(s) that handle errors in the program.</t>
+  </si>
+  <si>
+    <t>DECLARE 
+   &lt;declarations section&gt; 
+BEGIN 
+   &lt;executable command(s)&gt;
+EXCEPTION 
+   &lt;exception handling&gt; 
+END;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE 
+   num1 INTEGER; 
+   num2 REAL; 
+   num3 DOUBLE PRECISION; 
+BEGIN 
+   null; 
+END; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE 
+   SUBTYPE name IS char(20); 
+   SUBTYPE message IS varchar2(100); 
+   salutation name; 
+   greetings message; 
+BEGIN 
+   salutation := 'Reader '; 
+   greetings := 'Welcome to the World of PL/SQL'; 
+   dbms_output.put_line('Hello ' || salutation || greetings); 
+END; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales number(10, 2); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name varchar2(25); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">address varchar2(100); </t>
+  </si>
+  <si>
+    <t>greetings varchar2(20) DEFAULT 'Have a Good Day';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter binary_integer := 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE 
+   a integer := 10; 
+   b integer := 20; 
+   c integer; 
+   f real; 
+BEGIN 
+   c := a + b; 
+   dbms_output.put_line('Value of c: ' || c); 
+   f := 70.0/3.0; 
+   dbms_output.put_line('Value of f: ' || f); 
+END; </t>
+  </si>
+  <si>
+    <t>PI CONSTANT NUMBER := 3.141592654;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE 
+   a integer := 10; 
+   c integer; 
+BEGIN 
+   c := a + b; 
+   dbms_output.put_line('Value of c: ' || c); END; </t>
   </si>
 </sst>
 </file>
@@ -1772,7 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1782,17 +2261,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1803,6 +2276,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1823,15 +2312,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1851,9 +2334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1891,7 +2374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1997,7 +2480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2139,7 +2622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,17 +2630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C071B-FEB5-FE49-8D8D-2AEEA55E3458}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H18"/>
+    <sheetView topLeftCell="A3" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="51.33203125" customWidth="1"/>
@@ -2171,628 +2654,826 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G5" s="8"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="8" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G17" s="8" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="8" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>96</v>
       </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>96</v>
       </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>102</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>164</v>
-      </c>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>165</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>176</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="6" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="6" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="6" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="6" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="16"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="17"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="6"/>
-      <c r="E118" s="6" t="s">
+      <c r="B119" s="19"/>
+      <c r="C119" s="5"/>
+      <c r="E119" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F119" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C120" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E120" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F120" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F121" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C122" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E122" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F122" s="5" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A104:C104"/>
     <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D86" r:id="rId1" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{8506C3F5-5D7D-4F47-A874-B2319670D18E}"/>
-    <hyperlink ref="F121" r:id="rId2" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{11857A33-BD9A-0C40-971B-A58780393BA7}"/>
+    <hyperlink ref="D87" r:id="rId1" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{8506C3F5-5D7D-4F47-A874-B2319670D18E}"/>
+    <hyperlink ref="F122" r:id="rId2" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{11857A33-BD9A-0C40-971B-A58780393BA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C5CCE1-1D8B-7140-AC37-7BC45E6EAFE3}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="164" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="3" width="35.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="46.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8970059B-1EDB-104E-A78E-C2FB1925DBE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283A6448-6D54-4049-B55A-72088A3972AB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2804,7 +3485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359E2B2-6908-7047-B228-F33D373A5320}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2816,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916BA34-6886-EC42-9E3D-89A6417D6173}">
   <dimension ref="A2:B26"/>
   <sheetViews>
@@ -2919,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3646611B-9DD2-8849-843B-8DC29BA517F2}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2932,105 +3613,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="15" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="15" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="15" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3041,80 +3722,71 @@
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="40" spans="3:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="C40" s="8" t="s">
+    </row>
+    <row r="40" spans="3:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="3:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="C41" s="8" t="s">
+    <row r="41" spans="3:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="C41" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="C42" s="8" t="s">
+    <row r="42" spans="3:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="C42" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="C43" s="8" t="s">
+    <row r="43" spans="3:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="C43" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3124,6 +3796,584 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BEDE8E-151C-7240-8D5C-2CFEE8F4DD17}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="191" workbookViewId="0">
+      <selection activeCell="C23" sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D99FADA-ADA3-794B-B01C-3E57D6FA401B}">
+  <dimension ref="A2:C67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="208" workbookViewId="0">
+      <selection activeCell="B62" sqref="A62:B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="3" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="188" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="B63" s="28"/>
+    </row>
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B64" s="28"/>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B65" s="28"/>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" s="28"/>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B67" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B62:B67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD99CE-D98A-8B44-95CF-AEAC985E44E0}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -3139,69 +4389,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="5" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3209,92 +4459,92 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3306,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC14D30A-0EDE-9646-A071-56BA2851FE5F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3318,7 +4568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7386FAE-CDFB-DE4D-91E9-052468C5B280}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3334,110 +4584,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="6"/>
+      <c r="D5" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="5"/>
+      <c r="D6" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3447,7 +4697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3247DA9-C881-C645-97D1-AE6BE3BAA214}">
   <dimension ref="A1:E80"/>
   <sheetViews>
@@ -3464,171 +4714,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3661,48 +4911,48 @@
     <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="23"/>
     </row>
     <row r="74" spans="1:2" ht="187" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="289" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="340" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3727,7 +4977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9041FD9-4923-7D48-BD1B-ECB201CBAC5C}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -3743,44 +4993,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3789,85 +5039,85 @@
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3958,27 +5208,27 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="24"/>
       <c r="B38"/>
-      <c r="C38" s="20"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -4000,186 +5250,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C5CCE1-1D8B-7140-AC37-7BC45E6EAFE3}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="3" width="35.6640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="46.5" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8970059B-1EDB-104E-A78E-C2FB1925DBE1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/Master- Interview.xlsx
+++ b/docs/Master- Interview.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvas22/Desktop/David/www/development/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/David/www/development/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E204C-5189-EA43-BF96-A847BC2993F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0C4D2-899B-B344-860A-EDBD2A9FE4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="19840" activeTab="3" xr2:uid="{392900BC-6509-0B43-901F-EAAB9318BEC5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="3" xr2:uid="{392900BC-6509-0B43-901F-EAAB9318BEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
     <sheet name="Databse" sheetId="10" r:id="rId2"/>
     <sheet name="SQL" sheetId="13" r:id="rId3"/>
-    <sheet name="PL SQL" sheetId="14" r:id="rId4"/>
-    <sheet name="DynanoDB" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
-    <sheet name="System Design" sheetId="8" r:id="rId7"/>
-    <sheet name="Concepts" sheetId="9" r:id="rId8"/>
-    <sheet name="Web" sheetId="5" r:id="rId9"/>
-    <sheet name="Frameworks" sheetId="6" r:id="rId10"/>
-    <sheet name="React" sheetId="3" r:id="rId11"/>
-    <sheet name="AWS" sheetId="4" r:id="rId12"/>
-    <sheet name="JavaScript" sheetId="2" r:id="rId13"/>
-    <sheet name="Web- Full" sheetId="7" r:id="rId14"/>
+    <sheet name="Tune SQL" sheetId="15" r:id="rId4"/>
+    <sheet name="PL SQL" sheetId="14" r:id="rId5"/>
+    <sheet name="DynanoDB" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
+    <sheet name="System Design" sheetId="8" r:id="rId8"/>
+    <sheet name="Concepts" sheetId="9" r:id="rId9"/>
+    <sheet name="Web" sheetId="5" r:id="rId10"/>
+    <sheet name="Frameworks" sheetId="6" r:id="rId11"/>
+    <sheet name="React" sheetId="3" r:id="rId12"/>
+    <sheet name="AWS" sheetId="4" r:id="rId13"/>
+    <sheet name="JavaScript" sheetId="2" r:id="rId14"/>
+    <sheet name="Web- Full" sheetId="7" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="488">
   <si>
     <t>Java Language</t>
   </si>
@@ -2125,6 +2126,84 @@
 BEGIN 
    c := a + b; 
    dbms_output.put_line('Value of c: ' || c); END; </t>
+  </si>
+  <si>
+    <t>Table Size</t>
+  </si>
+  <si>
+    <t>Joins</t>
+  </si>
+  <si>
+    <t>Aggregations</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>High Rows</t>
+  </si>
+  <si>
+    <t>High level of row count from the joins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Combining multiple rows to produce a result requires more computation than simply retrieving those rows.</t>
+  </si>
+  <si>
+    <t>Other Users</t>
+  </si>
+  <si>
+    <t>Database software and optimization</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>High number of users</t>
+  </si>
+  <si>
+    <t>SQL Server Query Store</t>
+  </si>
+  <si>
+    <t>Last queries executed on the database</t>
+  </si>
+  <si>
+    <t>Execution counts- number of executions for each query</t>
+  </si>
+  <si>
+    <t>Longest average execution time</t>
+  </si>
+  <si>
+    <t>Biggest average physical I/O reads in 24 hours</t>
+  </si>
+  <si>
+    <t>Highest wait duration</t>
+  </si>
+  <si>
+    <t>Queries that recently regressed in performance</t>
+  </si>
+  <si>
+    <t>SELECT fields instead of using SELECT *</t>
+  </si>
+  <si>
+    <t>Avoid SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>Create  queries with INNER JOIN (not WHERE or cross join):</t>
+  </si>
+  <si>
+    <t>Use WHERE instead of HAVING to define filters</t>
+  </si>
+  <si>
+    <t>Use LIMIT to sample query results:</t>
+  </si>
+  <si>
+    <t>Run your query during off-peak hours</t>
+  </si>
+  <si>
+    <t>Other Tuning</t>
+  </si>
+  <si>
+    <t>Joins: Making joins less complicated use a sub query first</t>
   </si>
 </sst>
 </file>
@@ -2293,6 +2372,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2302,6 +2383,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2309,12 +2394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2855,11 +2934,11 @@
       <c r="H19" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -3128,16 +3207,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="22"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="23"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -3172,11 +3251,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -3212,10 +3291,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="19"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="5"/>
       <c r="E119" s="5" t="s">
         <v>177</v>
@@ -3292,6 +3371,281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9041FD9-4923-7D48-BD1B-ECB201CBAC5C}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C5CCE1-1D8B-7140-AC37-7BC45E6EAFE3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3338,7 +3692,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3349,7 +3703,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>256</v>
       </c>
@@ -3358,7 +3712,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>257</v>
       </c>
@@ -3367,7 +3721,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>258</v>
       </c>
@@ -3376,7 +3730,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>259</v>
       </c>
@@ -3385,7 +3739,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>260</v>
       </c>
@@ -3394,7 +3748,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
@@ -3461,7 +3815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8970059B-1EDB-104E-A78E-C2FB1925DBE1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3473,7 +3827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283A6448-6D54-4049-B55A-72088A3972AB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3485,7 +3839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359E2B2-6908-7047-B228-F33D373A5320}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3497,7 +3851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916BA34-6886-EC42-9E3D-89A6417D6173}">
   <dimension ref="A2:B26"/>
   <sheetViews>
@@ -3799,7 +4153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BEDE8E-151C-7240-8D5C-2CFEE8F4DD17}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="191" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="191" workbookViewId="0">
       <selection activeCell="C23" sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
@@ -4101,7 +4455,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>374</v>
       </c>
@@ -4117,10 +4471,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E41F3E8-996F-B343-850E-1AA8BA8DB234}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="191" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D99FADA-ADA3-794B-B01C-3E57D6FA401B}">
   <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="208" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="208" workbookViewId="0">
       <selection activeCell="B62" sqref="A62:B67"/>
     </sheetView>
   </sheetViews>
@@ -4322,48 +4835,48 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="188" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="24" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="25"/>
     </row>
     <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="25"/>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="25"/>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4373,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD99CE-D98A-8B44-95CF-AEAC985E44E0}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4556,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC14D30A-0EDE-9646-A071-56BA2851FE5F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4568,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7386FAE-CDFB-DE4D-91E9-052468C5B280}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -4590,10 +5103,10 @@
       <c r="B1" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -4697,7 +5210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3247DA9-C881-C645-97D1-AE6BE3BAA214}">
   <dimension ref="A1:E80"/>
   <sheetViews>
@@ -4717,11 +5230,11 @@
       <c r="A1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4911,10 +5424,10 @@
     <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="27"/>
     </row>
     <row r="74" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
@@ -4975,279 +5488,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9041FD9-4923-7D48-BD1B-ECB201CBAC5C}">
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38"/>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>